--- a/C语言课程讲义_笔记/B站鹏哥/2024_6_17 P_49 讲作业，递归在P44里面，要多看几遍.xlsx
+++ b/C语言课程讲义_笔记/B站鹏哥/2024_6_17 P_49 讲作业，递归在P44里面，要多看几遍.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -15,14 +15,66 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+  <si>
+    <t>同逻辑的情况下default放代码块之内的哪个顺序都行，不影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有break，代码会一直向下走，直到default赋值0，然后输出，所以最终结果是0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D，switc后面必须接整形or表达式，float是浮点数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D，hello之后没有break跳出，继续进入上一层的case2，接着打third</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基本实现方式，但冗余，来看优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写个交换函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法层面优化，从3开始算，加等3，直接找3的倍数打印了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴力求解，枚举硬试，来优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写过，找前面文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -50,15 +102,940 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>666167</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>8798</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="800100" y="533400"/>
+          <a:ext cx="4666667" cy="5819048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>646011</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>132689</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6334125" y="676275"/>
+          <a:ext cx="13514286" cy="5285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>605118</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>100708</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>140866</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1288677" y="7093324"/>
+          <a:ext cx="5647619" cy="2628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>256506</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>28267</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7248525" y="7334250"/>
+          <a:ext cx="5352381" cy="2466667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>580533</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>37514</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6934200" y="10267950"/>
+          <a:ext cx="3933333" cy="4685714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>104236</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>57063</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1962150" y="13420725"/>
+          <a:ext cx="4314286" cy="695238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285125</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>56808</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1457325" y="10696575"/>
+          <a:ext cx="5000000" cy="2733333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>514034</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>46907</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2105025" y="15563850"/>
+          <a:ext cx="2523809" cy="5742857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>180484</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>113740</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5857875" y="16211550"/>
+          <a:ext cx="3923809" cy="4476190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>56692</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>47254</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1876425" y="21936075"/>
+          <a:ext cx="3666667" cy="2971429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>656838</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>37931</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1676400" y="25260300"/>
+          <a:ext cx="3095238" cy="1352381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>570984</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>65889</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1247775" y="26698575"/>
+          <a:ext cx="4123809" cy="6285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>542690</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>18840</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6210300" y="28346400"/>
+          <a:ext cx="1876190" cy="1676190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>132965</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>142492</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1857375" y="33423225"/>
+          <a:ext cx="3076190" cy="3066667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>428108</xdr:colOff>
+      <xdr:row>237</xdr:row>
+      <xdr:rowOff>84742</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5895975" y="32851725"/>
+          <a:ext cx="4133333" cy="7866667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>28087</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>8528</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13954125" y="32842200"/>
+          <a:ext cx="3904762" cy="7971428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>247</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66229</xdr:colOff>
+      <xdr:row>260</xdr:row>
+      <xdr:rowOff>94968</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1295400" y="42414825"/>
+          <a:ext cx="3571429" cy="2257143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>246</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>513848</xdr:colOff>
+      <xdr:row>266</xdr:row>
+      <xdr:rowOff>123382</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5410200" y="42186225"/>
+          <a:ext cx="4019048" cy="3542857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>246</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>218579</xdr:colOff>
+      <xdr:row>262</xdr:row>
+      <xdr:rowOff>94907</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="图片 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11334750" y="42271950"/>
+          <a:ext cx="3971429" cy="2742857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>278</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28148</xdr:colOff>
+      <xdr:row>296</xdr:row>
+      <xdr:rowOff>75808</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="图片 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1409700" y="47691675"/>
+          <a:ext cx="3419048" cy="3133333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>274</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>532854</xdr:colOff>
+      <xdr:row>305</xdr:row>
+      <xdr:rowOff>123159</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="图片 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5762625" y="47091600"/>
+          <a:ext cx="4371429" cy="5323809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>312</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285327</xdr:colOff>
+      <xdr:row>325</xdr:row>
+      <xdr:rowOff>66398</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="图片 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1704975" y="53568600"/>
+          <a:ext cx="3380952" cy="2219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>312</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>123406</xdr:colOff>
+      <xdr:row>324</xdr:row>
+      <xdr:rowOff>75942</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="图片 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9801225" y="53559075"/>
+          <a:ext cx="3352381" cy="2066667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>333</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>113575</xdr:colOff>
+      <xdr:row>354</xdr:row>
+      <xdr:rowOff>104314</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="图片 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1171575" y="57111900"/>
+          <a:ext cx="5800000" cy="3685714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -100,7 +1077,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -132,9 +1109,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -166,6 +1144,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -341,37 +1320,96 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="J66:AB319"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A322" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U347" sqref="U347"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="66" spans="18:18" x14ac:dyDescent="0.15">
+      <c r="R66" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="16:16" x14ac:dyDescent="0.15">
+      <c r="P101" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K133" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="15:15" x14ac:dyDescent="0.15">
+      <c r="O167" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="17:28" x14ac:dyDescent="0.15">
+      <c r="Q199" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB199" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="252" spans="16:24" x14ac:dyDescent="0.15">
+      <c r="X252" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="254" spans="16:24" x14ac:dyDescent="0.15">
+      <c r="P254" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="283" spans="17:17" x14ac:dyDescent="0.15">
+      <c r="Q283" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="319" spans="10:21" x14ac:dyDescent="0.15">
+      <c r="J319" t="s">
+        <v>9</v>
+      </c>
+      <c r="U319" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/C语言课程讲义_笔记/B站鹏哥/2024_6_17 P_49 讲作业，递归在P44里面，要多看几遍.xlsx
+++ b/C语言课程讲义_笔记/B站鹏哥/2024_6_17 P_49 讲作业，递归在P44里面，要多看几遍.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>同逻辑的情况下default放代码块之内的哪个顺序都行，不影响</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,6 +55,22 @@
   </si>
   <si>
     <t>写过，找前面文档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在表达式这里判断了，才进循环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以条件表达式的执行次数永远多一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a = 8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1023,6 +1039,272 @@
         <a:xfrm>
           <a:off x="1171575" y="57111900"/>
           <a:ext cx="5800000" cy="3685714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>334</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>294989</xdr:colOff>
+      <xdr:row>346</xdr:row>
+      <xdr:rowOff>152124</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9667875" y="57264300"/>
+          <a:ext cx="2285714" cy="2209524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>359</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>656694</xdr:colOff>
+      <xdr:row>383</xdr:row>
+      <xdr:rowOff>37589</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="图片 26"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1895475" y="61617225"/>
+          <a:ext cx="4247619" cy="4085714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>388</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>465975</xdr:colOff>
+      <xdr:row>392</xdr:row>
+      <xdr:rowOff>18965</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="图片 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1323975" y="66551175"/>
+          <a:ext cx="6000000" cy="676190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>386</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>504171</xdr:colOff>
+      <xdr:row>423</xdr:row>
+      <xdr:rowOff>151604</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="图片 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8305800" y="66303525"/>
+          <a:ext cx="5228571" cy="6371429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>387</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>142273</xdr:colOff>
+      <xdr:row>415</xdr:row>
+      <xdr:rowOff>75594</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="图片 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14525625" y="66379725"/>
+          <a:ext cx="4819048" cy="4847619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>428</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>151723</xdr:colOff>
+      <xdr:row>457</xdr:row>
+      <xdr:rowOff>47000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="图片 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8448675" y="73399650"/>
+          <a:ext cx="5419048" cy="5000000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>429</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>599144</xdr:colOff>
+      <xdr:row>436</xdr:row>
+      <xdr:rowOff>37956</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="图片 31"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="73637775"/>
+          <a:ext cx="7447619" cy="1152381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1321,10 +1603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="J66:AB319"/>
+  <dimension ref="J66:AB365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A322" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U347" sqref="U347"/>
+    <sheetView tabSelected="1" topLeftCell="A412" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X448" sqref="X448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1380,6 +1662,24 @@
         <v>9</v>
       </c>
     </row>
+    <row r="338" spans="13:23" x14ac:dyDescent="0.15">
+      <c r="M338" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="339" spans="13:23" x14ac:dyDescent="0.15">
+      <c r="S339" t="s">
+        <v>11</v>
+      </c>
+      <c r="W339" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="365" spans="13:13" x14ac:dyDescent="0.15">
+      <c r="M365" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/C语言课程讲义_笔记/B站鹏哥/2024_6_17 P_49 讲作业，递归在P44里面，要多看几遍.xlsx
+++ b/C语言课程讲义_笔记/B站鹏哥/2024_6_17 P_49 讲作业，递归在P44里面，要多看几遍.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>同逻辑的情况下default放代码块之内的哪个顺序都行，不影响</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,6 +71,77 @@
   </si>
   <si>
     <t>a = 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入数字版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但是输入数字时要注意一个要点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始化只有一个0，编译器会默认数组只有1个元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>越界访问了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D的反例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BV1By4y1x7Yh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B站函数栈帧视频号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16. 局部变量与栈帧的关系、static修饰的函数_哔哩哔哩_bilibili</t>
+  </si>
+  <si>
+    <t>做过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数有且只有一个返回值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>形参用数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>形参用指针</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用两个全局变量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -78,7 +149,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +162,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -111,14 +190,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1305,6 +1387,1184 @@
         <a:xfrm>
           <a:off x="695325" y="73637775"/>
           <a:ext cx="7447619" cy="1152381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>465</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>85301</xdr:colOff>
+      <xdr:row>477</xdr:row>
+      <xdr:rowOff>104519</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="图片 32"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2181225" y="79838550"/>
+          <a:ext cx="3390476" cy="2047619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>463</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>199363</xdr:colOff>
+      <xdr:row>491</xdr:row>
+      <xdr:rowOff>151788</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="图片 33"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7934325" y="79438500"/>
+          <a:ext cx="5295238" cy="4895238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>461</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>608886</xdr:colOff>
+      <xdr:row>498</xdr:row>
+      <xdr:rowOff>151600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="图片 34"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14097000" y="79133700"/>
+          <a:ext cx="5714286" cy="6400000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>532</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304413</xdr:colOff>
+      <xdr:row>535</xdr:row>
+      <xdr:rowOff>152326</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="图片 35"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2009775" y="91287600"/>
+          <a:ext cx="3095238" cy="590476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>505</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>675296</xdr:colOff>
+      <xdr:row>525</xdr:row>
+      <xdr:rowOff>161479</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="图片 37"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1762125" y="86601300"/>
+          <a:ext cx="7828571" cy="3571429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>501</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>570888</xdr:colOff>
+      <xdr:row>527</xdr:row>
+      <xdr:rowOff>66125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="图片 38"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14192250" y="86020275"/>
+          <a:ext cx="4895238" cy="4400000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>532</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>294579</xdr:colOff>
+      <xdr:row>560</xdr:row>
+      <xdr:rowOff>18449</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="图片 39"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5695950" y="91220925"/>
+          <a:ext cx="5571429" cy="4809524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>546</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>494452</xdr:colOff>
+      <xdr:row>549</xdr:row>
+      <xdr:rowOff>76126</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="图片 40"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId39"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11544300" y="93611700"/>
+          <a:ext cx="6780952" cy="590476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>566</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>332765</xdr:colOff>
+      <xdr:row>583</xdr:row>
+      <xdr:rowOff>142505</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="图片 41"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1628775" y="97135950"/>
+          <a:ext cx="4876190" cy="2961905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>585</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>675634</xdr:colOff>
+      <xdr:row>602</xdr:row>
+      <xdr:rowOff>132976</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="图片 42"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId41"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1724025" y="100355400"/>
+          <a:ext cx="5123809" cy="2990476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>586</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>208930</xdr:colOff>
+      <xdr:row>602</xdr:row>
+      <xdr:rowOff>9193</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="图片 43"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10334625" y="100564950"/>
+          <a:ext cx="4961905" cy="2657143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>608</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>275668</xdr:colOff>
+      <xdr:row>626</xdr:row>
+      <xdr:rowOff>123440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="图片 44"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId43"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1990725" y="104374950"/>
+          <a:ext cx="4457143" cy="3076190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>628</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9012</xdr:colOff>
+      <xdr:row>646</xdr:row>
+      <xdr:rowOff>37714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="图片 45"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2076450" y="107708700"/>
+          <a:ext cx="4104762" cy="3085714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>648</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>485248</xdr:colOff>
+      <xdr:row>665</xdr:row>
+      <xdr:rowOff>75834</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="图片 46"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId45"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1752600" y="111166275"/>
+          <a:ext cx="4219048" cy="2923809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>665</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304387</xdr:colOff>
+      <xdr:row>698</xdr:row>
+      <xdr:rowOff>56454</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="图片 48"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10029825" y="114157125"/>
+          <a:ext cx="3304762" cy="5571429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>667</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>580265</xdr:colOff>
+      <xdr:row>686</xdr:row>
+      <xdr:rowOff>9119</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="图片 49"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId47"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1362075" y="114376200"/>
+          <a:ext cx="6076190" cy="3247619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>688</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>294808</xdr:colOff>
+      <xdr:row>703</xdr:row>
+      <xdr:rowOff>113977</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="图片 50"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2047875" y="118062375"/>
+          <a:ext cx="3733333" cy="2580952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>709</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>37662</xdr:colOff>
+      <xdr:row>722</xdr:row>
+      <xdr:rowOff>47357</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="图片 51"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId49"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2705100" y="121691400"/>
+          <a:ext cx="3504762" cy="2142857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>728</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>199417</xdr:colOff>
+      <xdr:row>743</xdr:row>
+      <xdr:rowOff>123502</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="图片 52"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1504950" y="124929900"/>
+          <a:ext cx="4866667" cy="2580952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>727</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>113390</xdr:colOff>
+      <xdr:row>765</xdr:row>
+      <xdr:rowOff>103962</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="图片 53"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId51"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7239000" y="124758450"/>
+          <a:ext cx="7276190" cy="6504762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>770</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>218352</xdr:colOff>
+      <xdr:row>787</xdr:row>
+      <xdr:rowOff>85370</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="图片 54"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1295400" y="132178425"/>
+          <a:ext cx="5780952" cy="2838095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>769</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>18592</xdr:colOff>
+      <xdr:row>791</xdr:row>
+      <xdr:rowOff>66213</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="图片 55"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId53"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10753725" y="131987925"/>
+          <a:ext cx="3666667" cy="3695238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>773</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>428257</xdr:colOff>
+      <xdr:row>781</xdr:row>
+      <xdr:rowOff>142695</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="图片 56"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14630400" y="132607050"/>
+          <a:ext cx="2942857" cy="1438095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>788</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>37696</xdr:colOff>
+      <xdr:row>815</xdr:row>
+      <xdr:rowOff>66107</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="图片 57"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId55"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2981325" y="135255000"/>
+          <a:ext cx="3228571" cy="4542857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>792</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190082</xdr:colOff>
+      <xdr:row>817</xdr:row>
+      <xdr:rowOff>104236</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="图片 58"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9191625" y="135864600"/>
+          <a:ext cx="3342857" cy="4314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>793</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>561448</xdr:colOff>
+      <xdr:row>820</xdr:row>
+      <xdr:rowOff>75614</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="图片 59"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId57"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14859000" y="135978900"/>
+          <a:ext cx="4219048" cy="4685714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>797</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>276031</xdr:colOff>
+      <xdr:row>802</xdr:row>
+      <xdr:rowOff>76085</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="61" name="图片 60"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19297650" y="136655175"/>
+          <a:ext cx="1552381" cy="923810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>827</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>408963</xdr:colOff>
+      <xdr:row>843</xdr:row>
+      <xdr:rowOff>161568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="图片 61"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId59"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1685925" y="141836775"/>
+          <a:ext cx="4895238" cy="2857143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>849</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561480</xdr:colOff>
+      <xdr:row>864</xdr:row>
+      <xdr:rowOff>161584</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="图片 62"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2085975" y="145570575"/>
+          <a:ext cx="3961905" cy="2723809"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>869</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>37575</xdr:colOff>
+      <xdr:row>883</xdr:row>
+      <xdr:rowOff>152095</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="图片 63"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId61"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2009775" y="149104350"/>
+          <a:ext cx="4200000" cy="2438095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>888</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190162</xdr:colOff>
+      <xdr:row>900</xdr:row>
+      <xdr:rowOff>75940</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="图片 64"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2971800" y="152304750"/>
+          <a:ext cx="2704762" cy="2076190"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1603,10 +2863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="J66:AB365"/>
+  <dimension ref="D66:AD894"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A412" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X448" sqref="X448"/>
+    <sheetView tabSelected="1" topLeftCell="A845" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V862" sqref="V862"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1680,11 +2940,133 @@
         <v>13</v>
       </c>
     </row>
+    <row r="472" spans="30:30" x14ac:dyDescent="0.15">
+      <c r="AD472" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="503" spans="4:29" x14ac:dyDescent="0.15">
+      <c r="D503" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="511" spans="4:29" x14ac:dyDescent="0.15">
+      <c r="AC511" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="512" spans="4:29" x14ac:dyDescent="0.15">
+      <c r="P512" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="576" spans="12:12" x14ac:dyDescent="0.15">
+      <c r="L576" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="593" spans="13:13" x14ac:dyDescent="0.15">
+      <c r="M593" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="616" spans="12:12" x14ac:dyDescent="0.15">
+      <c r="L616" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="637" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K637" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="658" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K658" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="676" spans="12:24" x14ac:dyDescent="0.15">
+      <c r="L676" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="683" spans="12:24" x14ac:dyDescent="0.15">
+      <c r="X683">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="694" spans="10:24" x14ac:dyDescent="0.15">
+      <c r="J694" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="696" spans="10:24" x14ac:dyDescent="0.15">
+      <c r="V696" t="s">
+        <v>23</v>
+      </c>
+      <c r="X696" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="698" spans="10:24" x14ac:dyDescent="0.15">
+      <c r="V698" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="716" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K716" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="777" spans="12:14" x14ac:dyDescent="0.15">
+      <c r="L777" t="s">
+        <v>27</v>
+      </c>
+      <c r="N777" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="801" spans="4:21" x14ac:dyDescent="0.15">
+      <c r="D801" t="s">
+        <v>29</v>
+      </c>
+      <c r="U801" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="803" spans="4:21" x14ac:dyDescent="0.15">
+      <c r="M803" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="835" spans="12:12" x14ac:dyDescent="0.15">
+      <c r="L835" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="855" spans="11:11" x14ac:dyDescent="0.15">
+      <c r="K855" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="875" spans="12:12" x14ac:dyDescent="0.15">
+      <c r="L875" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="894" spans="12:12" x14ac:dyDescent="0.15">
+      <c r="L894" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="V698" r:id="rId1" display="https://www.bilibili.com/video/BV1vM411T7cp/?spm_id_from=333.788&amp;vd_source=b5310d7b18889d09faadfc801c6b71fa"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
